--- a/data/hotels_by_city/Dallas/Dallas_shard_393.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_393.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="498">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>sampauly</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>This hotel is designed for people to arrive via a car that will park in the garage.  I arrived via uber and had the most difficult time finding the entrance.  So strange!  Then I had to drag my luggage up a bunch of stairs.  This hotel probably isn't handicapped accessible.  But, the place was clean and convenient.More</t>
   </si>
   <si>
+    <t>Vickie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r582240015-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Julian S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r585014540-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Michelle S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r584232951-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t xml:space="preserve">Room was clean and very well equipped with everything we needed.  Employees were friendly and helpful.  Only issue we had was that I had to pay an additional $5.00 to get out of parking lot due to our hotel pass being expired by 12 minutes.  </t>
   </si>
   <si>
+    <t>missingteetee47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r578690599-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>The lack of ability of staff to help 1 in wheelchair,1 just had surgery. He pushed dolly of bags out in rain and said he was unable to help load them even after front desk said he would. Ruined it 4meMore</t>
   </si>
   <si>
+    <t>jbarnes751</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r578561478-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>very convenient to medical offices, suite was clean and comfortable, staff could have been more helpful/friendly, bit pricey for a late night arrival and leave early next morning.   availability of food/snacks upon late arrival was poor.</t>
   </si>
   <si>
+    <t>russery2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r577742330-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>Hotel entrance is extremely difficult to get elderly handicapped in to. Parking garage is not accommodating to handicap. You can park fine but is was not able to roll and walk across drives and curbs to get to front entrance of hotel. Rooms were great! They need entrance from inside parking garage to get into hotel. More</t>
   </si>
   <si>
+    <t>hackerp2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r576925789-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -342,6 +366,9 @@
     <t xml:space="preserve">We were in Dallas for a family member who needed an operation. It was NOT a pleasure trip. But the staff was as gracious as can be and even the parking attendant, seeing my hotel pass was expired for that day, let me through anyway. </t>
   </si>
   <si>
+    <t>Mackenzie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r575629394-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -369,6 +396,9 @@
     <t>The staff could have been more helpful and made it better.  Some thing were avoidable but other things were just overlooked.  We had a group of people and not sure if we would staty there again.  Location just ok.More</t>
   </si>
   <si>
+    <t>vindaloo2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r575258605-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -393,6 +423,9 @@
     <t>New hotel and good location for what we needed. However, parking is confusing, rooms rather small for suites, but. very clean. Breakfast was extremely over crowded, messy and out of food items. We did not have a good night sleep, as the AC and other noises throughout the night kept us awake. More</t>
   </si>
   <si>
+    <t>carolj687</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r574533810-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -408,6 +441,9 @@
     <t>Facility was good.  The staff were great and friendly.  The beds slept well but this facility needs to provide King beds.  They clean your room daily but you have to request extra service if you want vacuum service regularly if you are staying for a week.  Would stay again if they provide King beds.</t>
   </si>
   <si>
+    <t>pandj100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r574344358-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -432,6 +468,9 @@
     <t>Inconvienient I have never been to a hotel that was so hard to get to the front door. There was nobody at the valet station, no directions on how to get in the building the wind was blowing very hard and it was cold. This was early afternoon.More</t>
   </si>
   <si>
+    <t>jcorde989629</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r572545524-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -456,6 +495,9 @@
     <t>When I called the front desk, a member of staff was not only rude but acted like I didn't have a right to ask for anything and just about hung up on me....bathroom was not properly cleaned, there was dirt and hair in the showerMore</t>
   </si>
   <si>
+    <t>neesie2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r572529253-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -468,6 +510,9 @@
     <t>Professional, friendly staff. Very clean facility. Efficiently run hotel. We were staying here for the Deep Ellum Arts Festival. It is walking distance form the hotel, perfect for this occasion. I highly recommend this hotel.</t>
   </si>
   <si>
+    <t>belindag59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r563167752-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -486,6 +531,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>pgo66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r561032972-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -510,6 +558,9 @@
     <t>Nice clean and new hotel but a couple of things that put me off. Thought I would save the really long walk from my room to the elevator and then the same on the floor below, just to visit the laundry room which was below my room! I stepped into the stairwell which was right there next to my room and before I realized, the door closed behind me and I could see that there was no 're-entry from the stairwell! This was the case in every floor and the only way out was to go all the way down to the ground and out the back of the hotel. I then had to walk all the way around the building and in and up to the laundry room. Grrr!!!!Also, breakfast ENDS at 9am on the weekends! 9am!!!! Very poor effort.More</t>
   </si>
   <si>
+    <t>Michele C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r558995642-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -525,6 +576,9 @@
     <t>This hotel has a great location and great price. Especially compared to other hotels in the area. Very clean and helpful staff!  Breakfast was everything I needed.  Thank you to Delilah for being so accommodating to us.</t>
   </si>
   <si>
+    <t>472myrar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r558668769-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -540,6 +594,9 @@
     <t xml:space="preserve">Good quality for the money. Good location for us as it is close to Fair Park. No restaurants close. Light rail stop is a block or two away. Parking for hotel is actuality the hospital parking garage which is next door. </t>
   </si>
   <si>
+    <t>480zanem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r558468221-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -573,12 +630,18 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>kharrington512</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r557744098-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
     <t>557744098</t>
   </si>
   <si>
+    <t>Laura L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r556995987-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -597,6 +660,9 @@
     <t>Friendly staff, great location, clean, quiet rooms.  Really liked the full size refrigerator, microwave oven and dishwasher. I really liked that the bathroom is fully stocked with plenty of towels and washrags, big plus with me.  Provided a  tamper proof canister on the shower wall with body wash and one with shampoo.  Free internet service that is easy to connect .   Ports to charge phones with, sofa that hides a bed , desk, hair dryer etc.   All of the staff  members we came in contact were very friendly and courteous, a big plus with us.  Breakfast was nice, good selection , plus there is coffee in the rooms .   Very happy with our stay. Within walking distance of the Baylor Scott and White Medical Center, $5 parking lot across from the hotel and a covered  parking at the hotel.  We like the covered garage because of valet, and protection from hail and high winds.  Not sure if there are video cameras in the garage or not but made us feel safer knowing our truck was parked there instead of the open.  Also has parking along the side that you pay a meter to park long enough to bring your bags inside the hotel.    Over all this is a nice hotel with great service all of our needs were met. No complaints .  We had been staying at the Baylor Plaza up to the very day they closed the doors.  Really...Friendly staff, great location, clean, quiet rooms.  Really liked the full size refrigerator, microwave oven and dishwasher. I really liked that the bathroom is fully stocked with plenty of towels and washrags, big plus with me.  Provided a  tamper proof canister on the shower wall with body wash and one with shampoo.  Free internet service that is easy to connect .   Ports to charge phones with, sofa that hides a bed , desk, hair dryer etc.   All of the staff  members we came in contact were very friendly and courteous, a big plus with us.  Breakfast was nice, good selection , plus there is coffee in the rooms .   Very happy with our stay. Within walking distance of the Baylor Scott and White Medical Center, $5 parking lot across from the hotel and a covered  parking at the hotel.  We like the covered garage because of valet, and protection from hail and high winds.  Not sure if there are video cameras in the garage or not but made us feel safer knowing our truck was parked there instead of the open.  Also has parking along the side that you pay a meter to park long enough to bring your bags inside the hotel.    Over all this is a nice hotel with great service all of our needs were met. No complaints .  We had been staying at the Baylor Plaza up to the very day they closed the doors.  Really like the modern up to date Hilton Hotel and plan to stay there each time we come back to Dallas to the see the doctors.More</t>
   </si>
   <si>
+    <t>mekos2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r556731560-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -612,6 +678,9 @@
     <t xml:space="preserve">This hotel has nice rooms that are fully equipped for a stay with amenities. The parking garage is accross the street and there is NO SKYWALK, to get to hotel. You will walk down and across the street or walk thru closed businesses and across the street at night. Customer service could be better but it is cozy. </t>
   </si>
   <si>
+    <t>jeffB858ZX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r556087497-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -627,6 +696,9 @@
     <t>Very modern suites with some unique features such as black out window coverings and a curtain divider between living and sleeping sections.  The parking garage is disconnected, but at least there’s one</t>
   </si>
   <si>
+    <t>Thebschaffer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r555975881-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -642,6 +714,9 @@
     <t>Comfy rooms for our stay. Beds and sheets super clean and comfortable. Clean bathroom and super peacefully. Hotel just minutes away from downtown Dallas. Breakfast good for a quick grab and go. Totally recommend this location.</t>
   </si>
   <si>
+    <t>Curtis S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r555433037-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -655,6 +730,9 @@
   </si>
   <si>
     <t>Room was quiet, clean and in good repair.  Nice pool and workout area.  Large fridge, large microwave, plenty of dishes, but no cooktop.Little parking for check-in, you may have to park down the street and hump your bags.  Daily parking is in a parking garage half a block away.  Would lose internet and have to log back in up to twice a day on each device.  Limited breakfast selection and the quality of the selections was poor.  Few other options within walking distance (there is one sandwich shop next door, but I didn't try it).</t>
+  </si>
+  <si>
+    <t>Teresa R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r554687417-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
@@ -677,6 +755,9 @@
 Next big issue was that there is NO housekeeping on weekends and holidays unless you ask in advance.  So 3 of our 5 days had no service, even though I asked the Front Desk for service Sunday and Monday.  After a funeral on Saturday, we had to go downstairs to pick up clean towels at the Front Desk.  Beds were unmade, no clean dishes, no clean towels, etc.  By Monday, we even ran out of toilet paper!  No extra rolls in the bathroom; they never did provide Kleenex the entire stay.  They did not properly inform us of the lack of service -- housekeeping service is mentioned briefly on the last page of their in-room book and there is an...My family had several rooms and I stayed 5 nights, leaving January 16, 2018.  First the good points: location, fairly large rooms.  Bad points: They don't clearly tell you that there is NO parking.  On Hall Street, there are about five 2 hour spaces for check-in but they are usually full.  Otherwise you have to park next door in the hospital-owned garage.  It's $5 per exit or $10 per day IF you can score a hotel pass (apparently they only have a few and none were available when we checked in).  We ended up going to the Valet and bought a $20 weekly pass.  The elevators stop at 9pm, so be prepared to use stairs to get to/from your car.  Next big issue was that there is NO housekeeping on weekends and holidays unless you ask in advance.  So 3 of our 5 days had no service, even though I asked the Front Desk for service Sunday and Monday.  After a funeral on Saturday, we had to go downstairs to pick up clean towels at the Front Desk.  Beds were unmade, no clean dishes, no clean towels, etc.  By Monday, we even ran out of toilet paper!  No extra rolls in the bathroom; they never did provide Kleenex the entire stay.  They did not properly inform us of the lack of service -- housekeeping service is mentioned briefly on the last page of their in-room book and there is an environmental decal on the bathroom mirror, but you are not made aware of this when booking.  More</t>
   </si>
   <si>
+    <t>948gayleh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r554498903-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -692,6 +773,9 @@
     <t xml:space="preserve">My brother was in the hospital next door to the Home2. What a blessing to have such a clean, friendly and comfortable place to to withing walking distance of the hospital.  The employees were exceptionally friendly and helpful.  The bedding was top rate.  The fully supplied kitchen made me know that I could stay a month if I needed to. The breakfast gave me healthy options. Thank you for meeting my needs and more! </t>
   </si>
   <si>
+    <t>Richard S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r554259106-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -722,6 +806,9 @@
     <t xml:space="preserve">I'm normally a Hilton fan, but this new location disappointed. The breakfast was the worst of all similar brands with microwavable meat and eggs instead of fresh and oatmeal too thick to dip! And the parking arrangement with Baylor next door was incorrectly explained, costing me extra money. Hopefully they will get these fixed. </t>
   </si>
   <si>
+    <t>Charlotte S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r553616863-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -740,6 +827,9 @@
     <t>This hotel is brand new and the overall experience was good. It is across from a hospital so you will hear ambulances but it wasn't bad to the point of keeping me up late.The parking situation is strange and you have to park in the structure next door which they charge you for - really silly actually. I hope they work through this issue. The structure is to service the hospital and other medical buildings around. The overall hotel was very clean, but the ground in my suite was dirty with hair - they should learn to vacuum. Otherwise it was clean and decent. The bed sheets were a bit worn and chewed from the industrial washers and probably the bleach used.I may stay again but I would be sure they vacuumed the floor.The best park of the hotel for me was the fitness center which was very nice, free weights going up to 50lbs and a cable free motion machine with some ellipticals and treadmills.More</t>
   </si>
   <si>
+    <t>E4847BPwilliamo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r552575737-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -770,6 +860,9 @@
     <t>Stayed here for only one night, and have nothing bad to stay.  It seemed a little sparse, and could use more of a lived-in look.  While not "sterile", per se, it still had the feel of a place that has yet to get its feet under it.  Perhaps with more business the hotel will feel more alive.  No complaints - a fair price for a fair room.  Simple as that.  I guess if someone needed the hotel for an extended stay, it would be a solid choice, since there is a fridge, microwave, etc., and is in close proximity to the medical complex and other amenities.</t>
   </si>
   <si>
+    <t>Michele A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r552305796-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -791,6 +884,9 @@
     <t>Our bathroom was not very clean.  The room was fine, but the bathroom had a lot of hair on the floor, and behind the toilet was pretty grungy.  We choose this hotel due to how close it was to a venue my daughters band was playing at.  Parking is confusing, it was pouring down rain, and there is no portico to the hotel to stay dry.  In December it was a little cold to be getting wet like that.  I did appreciate parking in a parking garage on not on the street so that is a plus.  I usually only eat eggs for breakfast, and really all they had was cereal and breakfast sandwiches.  Other Home2 Suites I have stayed at have omelettes, I was kind of expecting that but it's not a deal breaker.  In the room we stayed in the heater/ac made a vibrating noise.More</t>
   </si>
   <si>
+    <t>Ashley J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r551609172-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -806,6 +902,9 @@
     <t xml:space="preserve">This hotel is minutes away from downtown Dallas and about 15 minutes from the DAL airport. I felt safe and enjoyed my stay. I would definitely stay again. The parking garage didn’t connect to the hotel so we had to brace the cold weather a bit. But it wasn’t too bad. The hotel is new and clean. The beds were queen sized, but I knew that before we booked. Overall, a very nice hotel NOT in the center of town but within a reasonable driving distance. </t>
   </si>
   <si>
+    <t>Shalon J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r551255156-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -836,6 +935,9 @@
     <t>We chose this hotel because of its proximity to the old Cotton Bowl at the fairgrounds.  It was very clean and modern and I would stay there again if the need arose.  The only downsides were that you have to park in the office tower parking next door and that the shower didn't get very hot.</t>
   </si>
   <si>
+    <t>Bill E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r549383806-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -851,6 +953,9 @@
     <t xml:space="preserve">Unhelpful and in professional night staff. Had no info on parking 200 ft from there door. But she was getting ready to get off work so she didn't wanna deal with anything. Next front desk lady had I'm guessing her husband/boyfriend n teen son there hanging out most of evening giving funny looks to people </t>
   </si>
   <si>
+    <t>V3550QKchristopherr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r549128070-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -866,6 +971,9 @@
     <t>Excellent staff, service, location for medical purposes, beds slept great, breakfast was very good, good workout and pool area, plenty of space to relax and unwind, and we will definitely use this hotel again</t>
   </si>
   <si>
+    <t>Mike H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r548551985-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -879,6 +987,9 @@
   </si>
   <si>
     <t>very nice.  very clean.  very polite staff.  nice room and close to baylor medical center.  breakfast good and those staffing it great.  would stay here again if need be.  close to some good restaurants.  not the best parking set up but imagine as good as it could be in the area I was in in Dallas.</t>
+  </si>
+  <si>
+    <t>mattdweber</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r548262384-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
@@ -905,6 +1016,9 @@
 When I got home, I made a couple attempts to contact Hilton...I stayed in this hotel for 5 nights specifically because I was recovering from surgery at Baylor across the street. My experience was bad from the start. When I made my reservation in advance, I was assured a room across from the elevator on the second floor (because I knew I would be unable to walk after surgery). When I checked in, I was assigned a room that could not have been any further from the elevator. When I explained my expectation, I was moved to another room, just a few steps closer to the elevator. Not helpful at all. When I complained about that room location, and explained my original expectation, I was told to contact Hilton Customer Service.Then...there was construction every afternoon; hammering, drilling, banging. Mind you I was trying to rest and recovery from surgery. When we called to complain, the front desk would simply say "they should be wrapping up within an hour". This went on for days. Finally, mid way though my stay, I noticed that rooms were being advertised at the hotel for $30 less a night than what I paid. When I inquired about their price guarantee, I was advised to contact Hilton customer service after my stay. Needless to stay, my experience at the hotel was so bad I left the earliest moment I was healthy to travel again.When I got home, I made a couple attempts to contact Hilton Customer Service. First via email. That garnered me an apology and 20,000 honors points (which I'm not even sure will get me one night at a Hilton, and secondly, the only way I benefit from that offer is if I decide to stay at a Hilton again). Second I utilized the "Chat" function on the website. They kept bouncing me from one rep to another, and ultimately recommended I contact the hotel directly. You can imagine my frustration level at hearing that. But, I cooled down, and called the hotel. What do you think they suggested I do? Contact Hilton Customer Service. I quit. This was a horrible experience, especially after surgery when I needed a reliable hotel the most.More</t>
   </si>
   <si>
+    <t>G3317OVwilliamf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r548107694-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -920,6 +1034,9 @@
     <t xml:space="preserve">Worst ever (period).  From parking, to cleanliness of room, to printer issues, to ice cold room with no heat, to hair all over the room in towels and all over the bathroom, to early closing breakfast hours, to screaming kids in the hallway.  This place was a total nightmare.   </t>
   </si>
   <si>
+    <t>K5954FDkevins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r548156504-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -932,6 +1049,9 @@
     <t>I left a change of clothes in the closet, room 305, and called back afternoon of check out and got the brush off, and call housekeeping the next morning when they were in house and immediately said no we did not find any, which is very untrue.  I am a gold member  and have been a huge Hilton fan, but this was just truly thievery.  Not happy about this</t>
   </si>
   <si>
+    <t>G5796BEtom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r547740161-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -947,6 +1067,9 @@
     <t>Located right near Baylor Med ctr in downtown Dallas.  Hotel could be a solid “4” but there is literally NO parking.  Not even to unload luggage!  Fire the architect and the corp VP who approved the site plan</t>
   </si>
   <si>
+    <t>S9864KYlarryw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r547294090-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -962,6 +1085,9 @@
     <t>Hotel sits on a corner where you can hardly see the hotel sign. The parking situation is not only poor its ridiculous. The room is over priced (even with an  AARP/Veteran discount). The attitude of the desk clerk was not appreciated. I will not stay here again.</t>
   </si>
   <si>
+    <t>Patty L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r547098113-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -977,6 +1103,9 @@
     <t xml:space="preserve">Got a great rate for Baylor medical center. Room was all newly renovated. Comfortable bed. Not overly friendly at front desk! But all in all worth the price and location of Baylor medical center. Walked over from hospital. </t>
   </si>
   <si>
+    <t>robertsG147AC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r546873681-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -992,6 +1121,9 @@
     <t>Great place with a great location.  The value is really there. The hotel is a cheap uber to deep ellum and downtown. Great place for a bro weekend or a value stay don't let the hospital next door get you down.</t>
   </si>
   <si>
+    <t>F4142JBrobertv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r546153316-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1007,6 +1139,9 @@
     <t>Nice size room with kitchenette and a pull-out table on wheels.  The bed was the most comfortable we have ever experienced.  Handicapped room was very helpful.  Great wi-fi with chargers.  This hotel is near Baylor Dallas and very convenient if you are from out of town and need to have surgery.</t>
   </si>
   <si>
+    <t>Dorie E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r545659926-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1022,6 +1157,9 @@
     <t>This hotel was a great place to stay while vising Dallas.  The rooms are very nice new and clean with a large refrigerator, microwave, and furnished with dishes!  Aldi's is just down the street!  Parking was very reasonable in the ramp adjacent to the hotel!  After reading some of the reviews I was a little nervous; however,  we had excellent service and an excellent stay!  I highly recommend this hotel!</t>
   </si>
   <si>
+    <t>Seth F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r544077625-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1043,6 +1181,9 @@
     <t>I felt like the rooms at the Home2 Suites were nice and clean. Everything is really new as the hotel just opened a few months ago. As far as the breakfast, I really liked the oatmeal with different toppings provided. The business center worked well for printing off a few documents that I needed printing. That being said, the hotel is new and still has a few things to figure out. The lock on the door to my room did not latch. I reported this to the front desk, and it was not fixed by the time that I returned that evening. This is something that should be fixed quickly, as it relates to security. My room was also really noisy on my 2nd night there. I could hear loud people across the hall. This isn't necessarily the fault of the hotel, but it was pretty loud in my room. Otherwise I had a fine stay and would recommend this hotel.More</t>
   </si>
   <si>
+    <t>813douglasw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r544150980-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1055,6 +1196,9 @@
     <t>Overall great experience.  A few minor housekeeping issues that could be easily resolved, like making sure dishes were properly cleaned and restocking coffee in the room.  I can see this being a great place for a business traveler or someone needing to stay close to the hospital.  We were there for a concert nearby with our adult son, and it was spacious, clean, super quiet and overall good experience.  The pool area seemed like a great place to hang out in the summer.  Loved how close to deep ellum and our favorite restaurants and hang out spots.  Will stay again.</t>
   </si>
   <si>
+    <t>sloan3271</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r543894345-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1070,6 +1214,9 @@
     <t>Great hotel! Had everything I wanted. The rooms were very clean, very comfortable.Very convenient to Baylor hospital where my first grandchild was born....actually right across the street! I enjoyed my stay!!</t>
   </si>
   <si>
+    <t>Donna F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r543942361-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1085,6 +1232,9 @@
     <t>The hotel is in a great location and was very modern and clean.  In fact, it just opened in the past month.  If you are staying for more than 2 days be sure to ask the desk clerk for a weekly parking pass option which is $20 (vs. $10/day).  We were not given any options for parking at check-in even when I asked about it.  When I booked the room it lead me to believe parking was $10 per stay with unlimited coming/going.  I even questioned the clerk at check-in and she said it would be $40 for my stay (4 nights).  It wasn't until we left the parking deck the first day that I saw the sign giving a weekly rate.  They only offer queen sized beds, which for me and my husband was not very comfortable.  For smaller adults or a single individual it would be fine.More</t>
   </si>
   <si>
+    <t>astripe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r543013916-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1103,6 +1253,9 @@
     <t>Do NOT stay at this hotel. The staff lacks basic hospitality skills and are unresponsive to issues they create. We booked our stay at this Home2 Suites by Hilton for our weekend getaway to Dallas as it looked nice and was a new hotel. Since we were a group of four grown men we made sure that we booked a room that had two queen size beds in it. We read a review that a past guest at the hotel had issues with getting the two bed room that they had booked so we made sure to call the day before our arrival to inform them that we would be arriving late and confirm our room would have two beds. We were assured at that time that our room would in fact still be available with the two beds we booked for. This ended up not being true. After arriving to the hotel and checking in, we were all surprised that our room only had one queen size bed in it and a small pull out sofa. We immediately went down to the front desk to inform them that they had placed us in the wrong room. The girl at the front desk was unapologetic and explained that there was nothing she could do as they were at capacity. She also went as far to express that we were lucky as we got the last room available. This was unacceptable!...Do NOT stay at this hotel. The staff lacks basic hospitality skills and are unresponsive to issues they create. We booked our stay at this Home2 Suites by Hilton for our weekend getaway to Dallas as it looked nice and was a new hotel. Since we were a group of four grown men we made sure that we booked a room that had two queen size beds in it. We read a review that a past guest at the hotel had issues with getting the two bed room that they had booked so we made sure to call the day before our arrival to inform them that we would be arriving late and confirm our room would have two beds. We were assured at that time that our room would in fact still be available with the two beds we booked for. This ended up not being true. After arriving to the hotel and checking in, we were all surprised that our room only had one queen size bed in it and a small pull out sofa. We immediately went down to the front desk to inform them that they had placed us in the wrong room. The girl at the front desk was unapologetic and explained that there was nothing she could do as they were at capacity. She also went as far to express that we were lucky as we got the last room available. This was unacceptable! We proceeded to call Hilton corporate who said that there were no vacancies at any of their other properties in the area that we could move to and unfortunately there wasn’t anything they could do for the next two nights. Since we had booked our stay through a third party website the booking was non refundable and we were stuck in an uncomfortable sleeping situation. One of us had to sleep on the ground for the first two nights using the couch cushions for support. We spoke with Hilton corporate again the next day who had troubles contacting the hotel and getting any sort of resolution. After finally getting ahold of the hotel staff we were assured that we would be moved into a two bed room for our third and final night. The manager at corporate also informed us that they believed that they could work with the third party site to refund the first two nights of our three night stay since we did not get the room we paid for. This all sounded fine so we followed up with corporate after returning home from the trip. They requested all of the booking information from the third party site and we quickly provided that to them. After a couple of days of not hearing anything we followed up. Hilton corporate then informed us that there was no way that they could refund the first two nights. The only thing they could do was offer a free night stay which again we found unacceptable. When we expressed our displeasure with this they offered two AMEX gift cards with the catch that they could only be used at Hilton properties and that the free night would have to be given up. Again, this was unacceptable. Hilton is not doing enough to make this right and they don’t seem to care that their properties aren’t honoring what their guests book. We had to spend several hours on the phone with Hilton both while on our vacation and after returning home and did not get any resolution. Hilton has lost four customers now, one of which used to be a Diamond Member with Hilton. You would think that Hilton would want to take care of all of their guests and especially one that had been a loyal customer and had achieved their highest status. Unfortunately the lack of customer service at both the property and at corporate has not lived up to expectations. We will be sure to share this experience with anyone and everyone we can in hopes that nobody has to deal with this sort of situation from Hilton or this hotel. Definitely recommend looking elsewhere and with a different company. More</t>
   </si>
   <si>
+    <t>Gregoryandkaren</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r542899764-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1121,6 +1274,9 @@
     <t>We booked an accessible room with roll in shower for my mom during her recent stay. We were not provided with the room we reserved. The front desk attendant was not helpful in rectifying the situation. Though the website states they have onsite parking, this is false. You must park in the MedProvider building and pay $10.00/day for parking. Lastly, we were not informed that parking would require 1/2 city block walk, which is very difficult for my mom who has limited mobility status. I have been on the phone with customer service for 22 minutes and still have not spoken with anyone that can help us. DO NOT BOOK THIS HOTEL! CUSTOMER SERVICE IS TERRIBLE!!!!More</t>
   </si>
   <si>
+    <t>861arshiaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r542515618-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1136,6 +1292,9 @@
     <t>Loved my stay at the Home2 Suites by Hilton Dallas Downtown. Got a sweet deal on a third party booking that allowed me to pay about $120 a night for a queen room. The staff were helpful and friendly. The only issue was that the hot eggs breakfast station didn't have any non-ham options 2 out of the 3 days I had breakfast there. But for a complimentary breakfast, I guess I'll take that.</t>
   </si>
   <si>
+    <t>sviatlanaf2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r542514043-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1151,6 +1310,9 @@
     <t>I love the modern design of the rooms and the lobby, very refreshing! They serve complementary breakfast but wish they offered more than 2 choices of teas at the lobby. If you are st the Baylor University Medical Center, this hotel is 5min walk. There are also couple coffee shops and food places right next to the hotel. I loved their voluminazing Netrogena shampoo- my hair was so shiny after the first use. Now gonna search for such shampoo at CVS. Staff was very friendly and helpful with good sense of humor. And their blankets were super soft and the mattress was very comfortable- best sleep ever I had there More</t>
   </si>
   <si>
+    <t>Hersha H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r541871083-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1166,6 +1328,9 @@
     <t>We were in town to visit a family member in the hospital.  The hospital was conveniently located across the street.  The hotel was nice and clean but was overpriced for the level of quality.  Other than price, we were very happy with our stay.</t>
   </si>
   <si>
+    <t>Carolyn W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r541764174-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1181,6 +1346,9 @@
     <t>I saw other reviews saying that the hotel did not honor reservation, but needed to be close to Baylor for my sons surgery. Made a reservation over a week in advance and when I arrrived, no reservation. Now I had my son with heart failure with me and the walk to get into the hotel was a lot for him. So I am in tears after a long drive to get there and not sure what to do. And the front desk clerk just asked me to step aside. She was rude. I am 60 yrs old and have never had such an experience and I definitely did not expect it at a Hilton property. So beware you may or may not have a room. A confirmation number is nothing here. I wish I would have listened to the reviews and skipped this place. My sons surgery was stressful enough without all the stress from this place. More</t>
   </si>
   <si>
+    <t>Doyle S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r541899150-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1193,6 +1361,9 @@
     <t>Great place to stay and staff very friendly, parking is not great and needs staffing for security or helping the customers from the parking lot to the hotel. Clean room and mattress was amazing for a hotel. When I needed something they responded very quickly</t>
   </si>
   <si>
+    <t>eddiem169</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r541032007-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1208,6 +1379,9 @@
     <t>Stayed at original price of $88.  This is probably what this hotel is worth w/o hospital discount.  (Price went up to $139 the following week @ hospital discount rate) I have stayed at hotels all over the US and this hotel (other than taking advantage of guests with someone sick in hospital because of location) is not worth $139.  I would  not recommend this hotel.  Particularly for someone on a pleasue visit to Dallas.</t>
   </si>
   <si>
+    <t>Sherri S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r540995239-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1220,6 +1394,9 @@
     <t xml:space="preserve">This hotel was an excellent resting place after visiting family at the hospital. Convenient location. Several restaurants within walking distance. Close to deep elem shops/eateries. Highly recommended. </t>
   </si>
   <si>
+    <t>618pamelai</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r541054318-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1232,6 +1409,9 @@
     <t>This hotel is new and very clean/nice.  The staff was friendly and overall my room was great.  The only real complaint I had about the room is that the A/C didn't go below 68 and I usually sleep with it colder than that.  Also, if driving in, the parking deck for the hotel is not attached and you have to walk quite a ways to and from so this would be a much better place to stay if you were using a shuttle/Uber or something like that.</t>
   </si>
   <si>
+    <t>jenniferaZ5378UR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r540807972-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1247,6 +1427,9 @@
     <t xml:space="preserve">I love the quiet atmosphere. The linens were awesome, so very soft! I loved the pool and gym. New treadmill. Only negative was food in labby was way too high. The breakfast was awesome. I had english muffin with egg and sausage. </t>
   </si>
   <si>
+    <t>Kim G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r540463421-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1262,6 +1445,9 @@
     <t xml:space="preserve">Horrible customer service Horrible parking situation Ridiculous breakfast hours Overpriced food and beverages Hard to reachLong walk from parking garage to hotel Room was nice and clean Close to downtown without the noise and traffic </t>
   </si>
   <si>
+    <t>Terri P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r538987349-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1277,6 +1463,9 @@
     <t>I stayed here for a recent business trip that partly involved visits to the Convention Center (about 10 minutes away).  The staff was friendly and helpful.  The rooms were spacious and comfortable...and I LOVED the blackout curtains.  It was the best I've slept in a hotel in a while.  While I was there on business, I was keenly aware that many of the people and families checking in were there for hospital stays.  The staff was kind and did everything they could to provide a calming environment for everyone.</t>
   </si>
   <si>
+    <t>99kellim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r538600764-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1295,6 +1484,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>333ginak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r537550709-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1500,9 @@
   </si>
   <si>
     <t>I love Home2Suite, but I can't recommend this location. The parking situation is terrible. There wasn't water in the fitness room and an elevator was completely without light. It only opened two weeks ago and it was apparent staff and building is not in full operation mode.</t>
+  </si>
+  <si>
+    <t>241artil</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12695480-r537310525-Home2_Suites_by_Hilton_Dallas_Downtown_at_Baylor_Scott_White-Dallas_Texas.html</t>
@@ -1827,43 +2022,47 @@
       <c r="A2" t="n">
         <v>66527</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>156402</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1879,56 +2078,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66527</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>43859</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1952,50 +2155,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66527</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>77350</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>61</v>
-      </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2019,50 +2226,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66527</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>6394</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2074,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -2093,37 +2304,37 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" t="s">
         <v>78</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" t="s">
-        <v>74</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2147,50 +2358,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66527</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>156403</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2212,56 +2427,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66527</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>156404</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2285,50 +2504,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66527</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>156405</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2350,56 +2573,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66527</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>156406</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2423,50 +2650,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66527</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>156407</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2488,56 +2719,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66527</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>156408</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2559,56 +2794,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66527</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>156409</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2632,50 +2871,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66527</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>156410</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2697,56 +2940,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="X14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66527</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>156411</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -2768,56 +3015,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66527</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>156412</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2841,50 +3092,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66527</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>156413</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2898,50 +3153,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66527</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>156414</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2953,56 +3212,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="X18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66527</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>22886</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3016,50 +3279,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66527</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>156415</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
         <v>170</v>
       </c>
-      <c r="J20" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" t="s">
-        <v>172</v>
-      </c>
-      <c r="L20" t="s">
-        <v>173</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>155</v>
-      </c>
       <c r="O20" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3083,50 +3350,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66527</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>156416</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="J21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3150,7 +3421,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
@@ -3163,37 +3434,37 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3217,32 +3488,36 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66527</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>156417</v>
+      </c>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s"/>
       <c r="K23" t="s"/>
@@ -3259,51 +3534,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66527</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>3662</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3327,50 +3603,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>66527</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>156418</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O25" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3394,50 +3674,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>66527</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>156419</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3461,50 +3745,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>66527</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>156420</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>203</v>
       </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s">
-        <v>204</v>
-      </c>
-      <c r="J27" t="s">
-        <v>205</v>
-      </c>
-      <c r="K27" t="s">
-        <v>206</v>
-      </c>
-      <c r="L27" t="s">
-        <v>207</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>184</v>
-      </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3528,50 +3816,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>66527</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>156421</v>
+      </c>
+      <c r="C28" t="s">
+        <v>232</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="J28" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3595,50 +3887,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>66527</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>23047</v>
+      </c>
+      <c r="C29" t="s">
+        <v>238</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3662,50 +3958,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>66527</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>156422</v>
+      </c>
+      <c r="C30" t="s">
+        <v>245</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="J30" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3729,50 +4029,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>66527</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>677</v>
+      </c>
+      <c r="C31" t="s">
+        <v>251</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J31" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="K31" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3796,7 +4100,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32">
@@ -3809,37 +4113,37 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="J32" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -3863,50 +4167,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>66527</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>95619</v>
+      </c>
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="J33" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="K33" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3930,50 +4238,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>66527</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>156423</v>
+      </c>
+      <c r="C34" t="s">
+        <v>269</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="J34" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="K34" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O34" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -3997,7 +4309,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35">
@@ -4010,37 +4322,37 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="J35" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4058,50 +4370,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>66527</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>156424</v>
+      </c>
+      <c r="C36" t="s">
+        <v>280</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="J36" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4119,50 +4435,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>66527</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>7239</v>
+      </c>
+      <c r="C37" t="s">
+        <v>288</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="J37" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="K37" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4186,50 +4506,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>66527</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>156425</v>
+      </c>
+      <c r="C38" t="s">
+        <v>294</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="J38" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4253,7 +4577,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39">
@@ -4266,37 +4590,37 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="J39" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="K39" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4320,50 +4644,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>66527</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>1647</v>
+      </c>
+      <c r="C40" t="s">
+        <v>305</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="J40" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="K40" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4387,50 +4715,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>66527</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>156426</v>
+      </c>
+      <c r="C41" t="s">
+        <v>311</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="J41" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="K41" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4454,50 +4786,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>66527</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C42" t="s">
+        <v>317</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="J42" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="K42" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="L42" t="s">
+        <v>322</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
         <v>286</v>
       </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>255</v>
-      </c>
       <c r="O42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4521,50 +4857,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>66527</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>156427</v>
+      </c>
+      <c r="C43" t="s">
+        <v>323</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="K43" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O43" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -4582,50 +4922,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>66527</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>156428</v>
+      </c>
+      <c r="C44" t="s">
+        <v>330</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="J44" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="K44" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="L44" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -4649,50 +4993,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>66527</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>156429</v>
+      </c>
+      <c r="C45" t="s">
+        <v>336</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="J45" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="K45" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="L45" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4716,50 +5064,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>66527</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>156430</v>
+      </c>
+      <c r="C46" t="s">
+        <v>341</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="J46" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="K46" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4783,50 +5135,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>66527</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>156431</v>
+      </c>
+      <c r="C47" t="s">
+        <v>347</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="J47" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="K47" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="L47" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O47" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -4850,50 +5206,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>66527</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>23772</v>
+      </c>
+      <c r="C48" t="s">
+        <v>353</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="J48" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="K48" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="L48" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4907,50 +5267,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>66527</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>156432</v>
+      </c>
+      <c r="C49" t="s">
+        <v>359</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="J49" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="K49" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="L49" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O49" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4974,50 +5338,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>66527</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>156433</v>
+      </c>
+      <c r="C50" t="s">
+        <v>365</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="J50" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="K50" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5041,50 +5409,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>66527</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>156434</v>
+      </c>
+      <c r="C51" t="s">
+        <v>371</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="J51" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="K51" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="L51" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5102,50 +5474,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>66527</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>156435</v>
+      </c>
+      <c r="C52" t="s">
+        <v>377</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="J52" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="K52" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="L52" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5165,50 +5541,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>66527</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>156436</v>
+      </c>
+      <c r="C53" t="s">
+        <v>385</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="J53" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="K53" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O53" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5232,50 +5612,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>66527</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>156437</v>
+      </c>
+      <c r="C54" t="s">
+        <v>390</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="J54" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="K54" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="L54" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5299,50 +5683,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>66527</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>4595</v>
+      </c>
+      <c r="C55" t="s">
+        <v>396</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="J55" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="K55" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="L55" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O55" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5366,50 +5754,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>66527</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>156438</v>
+      </c>
+      <c r="C56" t="s">
+        <v>402</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="J56" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="K56" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O56" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5423,50 +5815,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>66527</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>156439</v>
+      </c>
+      <c r="C57" t="s">
+        <v>409</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="J57" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="K57" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="L57" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O57" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -5486,50 +5882,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>66527</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>156440</v>
+      </c>
+      <c r="C58" t="s">
+        <v>416</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="J58" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="K58" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="L58" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5553,50 +5953,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>66527</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>156441</v>
+      </c>
+      <c r="C59" t="s">
+        <v>422</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="J59" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="K59" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="L59" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5620,50 +6024,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>66527</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>156442</v>
+      </c>
+      <c r="C60" t="s">
+        <v>428</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="J60" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="K60" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="L60" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O60" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -5687,41 +6095,45 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>66527</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>1837</v>
+      </c>
+      <c r="C61" t="s">
+        <v>434</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="J61" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="K61" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
@@ -5740,50 +6152,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>66527</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>156443</v>
+      </c>
+      <c r="C62" t="s">
+        <v>440</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="J62" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="K62" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="L62" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5807,50 +6223,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>66527</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>156444</v>
+      </c>
+      <c r="C63" t="s">
+        <v>445</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="J63" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="K63" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="L63" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P63" t="n">
         <v>2</v>
@@ -5874,50 +6294,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>66527</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>156445</v>
+      </c>
+      <c r="C64" t="s">
+        <v>451</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="J64" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="K64" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="L64" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -5941,50 +6365,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>66527</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>156446</v>
+      </c>
+      <c r="C65" t="s">
+        <v>456</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="J65" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="K65" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="L65" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6008,50 +6436,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>66527</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>156447</v>
+      </c>
+      <c r="C66" t="s">
+        <v>461</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>403</v>
+        <v>463</v>
       </c>
       <c r="J66" t="s">
-        <v>404</v>
+        <v>464</v>
       </c>
       <c r="K66" t="s">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="L66" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6075,50 +6507,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>66527</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>12669</v>
+      </c>
+      <c r="C67" t="s">
+        <v>467</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="J67" t="s">
-        <v>409</v>
+        <v>470</v>
       </c>
       <c r="K67" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
       <c r="L67" t="s">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O67" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -6142,50 +6578,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>411</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>66527</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>99716</v>
+      </c>
+      <c r="C68" t="s">
+        <v>473</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="J68" t="s">
-        <v>414</v>
+        <v>476</v>
       </c>
       <c r="K68" t="s">
-        <v>415</v>
+        <v>477</v>
       </c>
       <c r="L68" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6209,50 +6649,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>66527</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>156448</v>
+      </c>
+      <c r="C69" t="s">
+        <v>479</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="J69" t="s">
-        <v>419</v>
+        <v>482</v>
       </c>
       <c r="K69" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="L69" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="O69" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6276,50 +6720,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>66527</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>156449</v>
+      </c>
+      <c r="C70" t="s">
+        <v>486</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="J70" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="K70" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="L70" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="O70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>2</v>
@@ -6343,50 +6791,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>66527</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>156450</v>
+      </c>
+      <c r="C71" t="s">
+        <v>492</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="J71" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="K71" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="L71" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="O71" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P71" t="n">
         <v>2</v>
@@ -6410,7 +6862,7 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
